--- a/INFORMACION Fundamentos y Logica Mapfre.xlsx
+++ b/INFORMACION Fundamentos y Logica Mapfre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Desktop\Fundamentos y Logica\mapfre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbusta\Desktop\Fundamentos y Logica\logica_mapfre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="DRIVE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>REPOSITORIO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/15TCPQaL2j214h8DKlRr_sKxMg1Vr6vYt?usp=sharing</t>
+  </si>
+  <si>
+    <t>git- github</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QxjSrk8-lTTr3VBSQj3jeDCqlWRNIE0S/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://github.com/DevJumpProf/logica_mapfre</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,9 +496,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +524,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -736,8 +751,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -751,12 +766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -781,29 +796,39 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="7">
+        <v>44747</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="37" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="36"/>
       <c r="E5" s="9" t="s">
         <v>5</v>
@@ -812,7 +837,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="36"/>
       <c r="E6" s="9" t="s">
         <v>5</v>
@@ -824,17 +849,17 @@
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="36"/>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
@@ -870,7 +895,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1361,8 +1386,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1373,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1417,9 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="48" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1421,6 +1452,9 @@
       <c r="A12" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INFORMACION Fundamentos y Logica Mapfre.xlsx
+++ b/INFORMACION Fundamentos y Logica Mapfre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -56,6 +56,52 @@
   </si>
   <si>
     <t>https://github.com/DevJumpProf/logica_mapfre</t>
+  </si>
+  <si>
+    <t>repaso +
+* ¿QUÉ ES LA PROGRAMACIÓN?
+* ¿QUÉ ES UN LENGUAJE DE PROGRAMACIÓN?
+* ¿QUÉ ES UN ALGORITMO?
+* CARACTERÍSTICAS FUNDAMENTALES DE LOS ALGORITMOS
+* ¿CÓMO REPRESENTAR UN ALGORITMO?
+* VARIABLES Y CONSTANTES
+* TIPOS DE DATOS EN PSEINT
+* ¿CÓMO CREO UNA VARIABLE?</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RYS6brDK3ro6D6fDNHfZcCNmk-d7v1CY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ¿QUÉ ES EL PSEUDOCÓDIGO Y POR QUÉ VAMOS A UTILIZARLO? 
+* PROGRAMA 
+* DISEÑO DEL PROGRAMA 
+* ESPECIFICACIONES DE UN PROGRAMA 
+* CODIFICACIÓN 
+* ¿CÓMO DEBEN ESCRIBIRSE LOS ALGORITMOS/PROGRAMAS? 
+* CABECERA DEL PROGRAMA 
+* ¿QUÉ ELEMENTOS POSEE UN PROGRAMA? 
+* IDENTIFICADORES 
+* ¿Y si necesitamos un identificador de más de una palabra?
+* Introducción 
+* PSeInt 
+* Instalación 
+* Herramientas 
+* Click derecho 
+* Paso a paso 
+* Variables, 
+* Datos (pseint) 
+* Asignación 
+* Punto y coma 
+* Leer 
+* Concatenación
+* Operadores 
+* Operadores Aritméticos 
+* Operadores relacionales 
+* Operadores lógicos 
+* Estructuras de control 
+* if/else (si/no) 
+* Ejercicio: super_Adivina 
+</t>
   </si>
 </sst>
 </file>
@@ -197,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -389,12 +435,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -505,12 +566,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,15 +575,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,7 +825,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -766,12 +839,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -805,7 +878,7 @@
       <c r="C3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -815,21 +888,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45">
+        <v>44749</v>
+      </c>
+      <c r="B4" s="46">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
+        <v>44754</v>
+      </c>
+      <c r="B5" s="52">
+        <v>3</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
@@ -856,10 +945,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1389,9 +1478,11 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1417,7 +1508,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>11</v>
       </c>
     </row>

--- a/INFORMACION Fundamentos y Logica Mapfre.xlsx
+++ b/INFORMACION Fundamentos y Logica Mapfre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -102,6 +102,12 @@
 * if/else (si/no) 
 * Ejercicio: super_Adivina 
 </t>
+  </si>
+  <si>
+    <t>repaso Gral de conceptos acople con grupo data</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xC__gC9EiCqQvsHNPaAgypjaVX9zDBfA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -593,16 +599,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -825,7 +832,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -839,12 +846,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -907,10 +914,10 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+      <c r="A5" s="49">
         <v>44754</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="50">
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -924,10 +931,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
+      <c r="A6" s="7">
+        <v>44756</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1480,9 +1495,10 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Fundamentos y Logica Mapfre.xlsx
+++ b/INFORMACION Fundamentos y Logica Mapfre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1xC__gC9EiCqQvsHNPaAgypjaVX9zDBfA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Trabajo en grupo, resolucion del ejercicio donde utilizamos todo lo aprendido
+Arrays.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IWYHo0nkoojmM2HA68kl2-ZAr9RsV5eq/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -461,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -605,11 +612,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -831,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -846,12 +859,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -930,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44756</v>
       </c>
@@ -940,7 +953,7 @@
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -950,11 +963,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="54">
+        <v>44761</v>
+      </c>
+      <c r="B7" s="29">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1496,9 +1517,10 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
